--- a/Data/g3.9b.xlsx
+++ b/Data/g3.9b.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.11b média 2013-2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.11b média" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Posição</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +503,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +521,11 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +539,11 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +557,11 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -538,6 +573,11 @@
         <v>13.66198139059048</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -549,6 +589,11 @@
         <v>18.80640751751647</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2013-2023</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g3.9b.xlsx
+++ b/Data/g3.9b.xlsx
@@ -462,14 +462,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.21077572203018</v>
+        <v>29.56257958202775</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
@@ -480,14 +480,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.81479948957985</v>
+        <v>20.77671525367118</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
@@ -498,14 +498,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.53479754068388</v>
+        <v>20.51043402265566</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
@@ -516,14 +516,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.41281789836784</v>
+        <v>19.50217388325368</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
@@ -534,32 +534,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.86931752533874</v>
+        <v>18.89204421286304</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.52361642858733</v>
+        <v>16.58840455492738</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.66198139059048</v>
+        <v>13.70238082987031</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.80640751751647</v>
+        <v>18.76402348687201</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2013-2023</t>
+          <t>2013-2024</t>
         </is>
       </c>
     </row>

--- a/Data/g3.9b.xlsx
+++ b/Data/g3.9b.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2013-2024</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>

--- a/Data/g3.9b.xlsx
+++ b/Data/g3.9b.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.11b média" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.9b média" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
